--- a/questionnaires/RBDstandardized_questionnaireFCSHDDS.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireFCSHDDS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_FS_CH_guide_EN\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4440C5A-B358-47DF-9C54-E09BE9060A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132975B6-30B9-4F60-8A92-B0DC54F30356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1680" windowWidth="25440" windowHeight="15390" xr2:uid="{E25D54C6-3086-4347-8310-63AD65021B04}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -465,24 +465,6 @@
   <si>
     <r>
       <t xml:space="preserve">Over the last 7 days,What was the main source of: 
-Sugar and sweets, such as: 
-(sugar, honey, jam, cakes, candy, cookies, pastries, cakes and other sweet sugary drinks)?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days,What was the main source of: 
 Condiments/Spices:
 such as: 
 (tea, coffee / cocoa, salt, garlic, spices, yeast / baking powder, tomato / sauce, meat or fish as a condiment, condiments including small amount of milk / tea coffee)
@@ -679,53 +661,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Over the last 7 days,What was the main source of: 
-Sugar and sweets, such as: 
-(sugar, honey, jam, cakes, candy, cookies, pastries, cakes and other sweet sugary drinks)?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat 
-Cereals, such as:  
-(cereals, grains, rice, pasta, bread, sorghum, millet, maize, fonio) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">replace with locally relevant examples 
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">How many days over the last 7 days, did members of your household eat :
 Pulses, such as: 
 ( beans, cowpeas, peanuts, lentils, nut, soy, pigeon pea and / or other nuts) </t>
@@ -1225,6 +1160,24 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat:
+Oil/fat/butter,such as:
+(vegetable oil, palm oil, shea butter, margarine, other fats /oil)?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Over the last 7 days,What was the main source of: 
 Oil/fat/butter,such as:
 (vegetable oil, palm oil, shea butter, margarine, other fats /oil)?
@@ -1238,42 +1191,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat:
-Oil/fat/butter,such as:
-(vegetable oil, palm oil, shea butter, margarine, other fats /oil)?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days,What was the main source of: 
-Oil/fat/butter,such as:
-(vegetable oil, palm oil, shea butter, margarine, other fats /oil)?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> replace with locally relevant examples</t>
     </r>
   </si>
@@ -1311,24 +1228,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days, What was the main source of 
-Cereals, such as:  
-(cereals, grains, rice, pasta, bread, sorghum, millet, maize, fonio) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">replace with locally relevant examples </t>
     </r>
   </si>
   <si>
@@ -1354,6 +1253,108 @@
       <t xml:space="preserve">Over the last 7 days, What was the main source of 
 Roots and Tubers, such as:  
 (potato, yam, cassava, white sweet potato) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
+Oil/fat/butter,such as:
+(vegetable oil, palm oil, shea butter, margarine, other fats /oil)?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
+Sugar and sweets, such as: 
+(sugar, honey, jam, cakes, candy, cookies, pastries, cakes and other sweet sugary drinks)?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
+Condiments/Spices:
+such as: 
+(tea, coffee / cocoa, salt, garlic, spices, yeast / baking powder, tomato / sauce, meat or fish as a condiment, condiments including small amount of milk / tea coffee)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat 
+Cereals and grains, such as:  
+(cereals, grains, rice, pasta, bread, sorghum, millet, maize, fonio) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">replace with locally relevant examples 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, What was the main source of 
+Cereals and grains, such as:  
+(cereals, grains, rice, pasta, bread, sorghum, millet, maize, fonio) 
 </t>
     </r>
     <r>
@@ -1526,7 +1527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1577,9 +1578,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1980,10 +1978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AFB159-24AC-4874-85C9-2F1DE42CCCC7}">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,7 +2055,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7"/>
@@ -2075,62 +2073,62 @@
       <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" s="15" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56" t="s">
+      <c r="B3" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="J3" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" s="15" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56" t="s">
+      <c r="C4" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="14"/>
@@ -2139,27 +2137,27 @@
       <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:17" s="15" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56" t="s">
+      <c r="C5" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="14"/>
@@ -2168,27 +2166,27 @@
       <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17" s="17" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56" t="s">
+      <c r="C6" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="16"/>
@@ -2197,27 +2195,27 @@
       <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:17" s="17" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56" t="s">
+      <c r="C7" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="16"/>
@@ -2225,135 +2223,145 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
     </row>
-    <row r="8" spans="1:17" s="17" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+    <row r="8" spans="1:17" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>32</v>
+      <c r="A9" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
+        <v>34</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53" t="s">
+        <v>116</v>
+      </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
     </row>
     <row r="10" spans="1:17" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54" t="s">
-        <v>119</v>
+      <c r="A10" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53" t="s">
+        <v>116</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
     </row>
-    <row r="11" spans="1:17" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+    <row r="11" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-    </row>
-    <row r="12" spans="1:17" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="1:17" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="B13" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>96</v>
@@ -2369,1107 +2377,1002 @@
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
+      <c r="M13" s="21" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:17" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="19" t="s">
+      <c r="B16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="17" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="B23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-    </row>
-    <row r="18" spans="1:17" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23" t="s">
+      <c r="B24" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H24" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I24" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23" t="s">
+      <c r="J24" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="31" t="s">
+      <c r="B26" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+    </row>
+    <row r="28" spans="1:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="33" t="s">
+    </row>
+    <row r="29" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I31" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="J31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="B32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="H34" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-    </row>
-    <row r="31" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="B36" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-    </row>
-    <row r="32" spans="1:17" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+      <c r="B37" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+    </row>
+    <row r="38" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="35" t="s">
+      <c r="B38" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="H32" s="36" t="s">
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H41" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="I41" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="J32" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="J41" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="B42" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="B43" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="B44" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+    </row>
+    <row r="45" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="B45" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
+      <c r="B46" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="J38" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
+      <c r="B47" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+    </row>
+    <row r="48" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
+      <c r="B48" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-    </row>
-    <row r="42" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="s">
+      <c r="B49" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-    </row>
-    <row r="43" spans="1:17" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="H43" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="I43" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="J43" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="B50" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="44" t="s">
+      <c r="B51" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="H46" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="I46" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="J46" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-    </row>
-    <row r="50" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="48" t="s">
+      <c r="B52" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-    </row>
-    <row r="53" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J55" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaires/RBDstandardized_questionnaireFCSHDDS.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireFCSHDDS.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_FS_CH_guide_EN\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132975B6-30B9-4F60-8A92-B0DC54F30356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03656074-21E3-4BB1-B457-A1C21EA3DD80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1680" windowWidth="25440" windowHeight="15390" xr2:uid="{E25D54C6-3086-4347-8310-63AD65021B04}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{E25D54C6-3086-4347-8310-63AD65021B04}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$Q$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="229">
   <si>
     <t>type</t>
   </si>
@@ -140,23 +141,6 @@
     <t>HDDSPulse</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat 
-Pulses, such as: 
-( beans, cowpeas, peanuts, lentils, nut, soy, pigeon pea and / or other nuts) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">replace with locally relevant examples </t>
-    </r>
-  </si>
-  <si>
     <t>FCSPulseSRf</t>
   </si>
   <si>
@@ -230,40 +214,6 @@
   </si>
   <si>
     <t>FCSVegOrgSRf</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat:
-Orange vegetables , such as: 
-(carrot, red pepper, pumpkin, orange sweet potatoes, etc.) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days,What was the main source of 
-Orange vegetables , such as: 
-(carrot, red pepper, pumpkin, orange sweet potatoes, etc.)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>replace with locally relevant examples ?</t>
-    </r>
   </si>
   <si>
     <t>FCSVegGre</t>
@@ -404,11 +354,6 @@
     <t>FCSFruitOrgSRf</t>
   </si>
   <si>
-    <t>Over the last 7 days, how many days did members of your household eat:
-Orange fruits, such as:
-(mango, papaya, apricot, peach, etc.)</t>
-  </si>
-  <si>
     <t>FCSFruitOth</t>
   </si>
   <si>
@@ -443,24 +388,6 @@
   </si>
   <si>
     <t>FCSCondSRf</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat:
-Sugar and sweets, such as: 
-(sugar, honey, jam, cakes, candy, cookies, pastries, cakes and other sweet sugary drinks)?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples</t>
-    </r>
   </si>
   <si>
     <r>
@@ -483,7 +410,856 @@
   </si>
   <si>
     <r>
+      <t>Over the last 7 days,What was the main source of: 
+Sugar and sweets, such as: 
+(sugar, honey, jam, cakes, candy, cookies, pastries, cakes and other sweet sugary drinks)?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat/drink : 
+Milk and dairy products, such as:
+(fresh milk / sour, yogurt, cheese, other dairy products) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+excluding margarine / butter or small amounts of milk for tea / coffee ?
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Over the last 7 days,What was the main source of 
+Milk and dairy products, such as:
+(fresh milk / sour, yogurt, cheese, other dairy products)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  replace with locally relevant examples </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+excluding margarine / butter or small amounts of milk for tea / coffee ?
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
+Meat, fish, eggs, such as:
+(goat, beef, chicken, pork, blood, fish, including canned tuna, escargot, and / or other seafood, eggs)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">replace with locally relevant examples </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+consumed in large quantities and not as a condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
+Organ meat, such as: 
+(liver, kidney, heart and / or other organ meats)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">replace with locally relevant examples </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ consumed in large quantities and not as a condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days,What was the main source of 
+Organ meat, such as: 
+(liver, kidney, heart and / or other organ meats)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>replace with locally relevant examples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+ consumed in large quantities and not as a condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat/drink:
+Milk and dairy products, such as:
+(fresh milk / sour, yogurt, cheese, other dairy products) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+excluding margarine / butter or small amounts of milk for tea / coffee ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
+Flesh/red meat , such as:
+(beef, pork, lamb, goat, rabbit, chicken, duck, other birds, insects) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+consumed in large quantities and not as a condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yesterday, during the day and night, did members in your household eat:
+Flesh/red meat , such as:
+(beef, pork, lamb, goat, rabbit, chicken, duck, other birds, insects)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  replace with locally relevant examples </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+consumed in large quantities and not as a condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days,What was the main source of 
+Flesh/red meat , such as:
+(beef, pork, lamb, goat, rabbit, chicken, duck, other birds, insects) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consumed in large quantities and not as a condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat:
+Organ meat, such as: 
+(liver, kidney, heart and / or other organ meats)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>replace with locally relevant examples</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ consumed in large quantities and not as a condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
+ Fruits, such as:
+(banana, apple, lemon, mango, papaya, apricot, peach, etc.) ?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
+Other fruits, such as:
+(Pinapple, apple, lemon, etc.)?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat:
+Other fruits, such as:
+(Pinapple, apple, lemon, etc.)?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days,What was the main source of: 
+Other fruits, such as:
+(Pinapple, apple, lemon, etc.)?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <t>FCSStap</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat : 
+Cereals, grains, roots and tubers, such as:  
+(Rice, pasta, bread, sorghum, millet, maize, fonio, potato, yam, cassava, white sweet potato) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <t>${FCSPulse} &gt;0</t>
+  </si>
+  <si>
+    <t>${FCSDairy} &gt;0</t>
+  </si>
+  <si>
+    <t>${FCSPrMeatF} &gt;0</t>
+  </si>
+  <si>
+    <t>${FCSPrMeatO} &gt;0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
+Fish and shellfish,  such as: 
+(fish, including canned tuna, escargot, and / or other seafood) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">replace with locally relevant examples </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+consumed in large quantities and not as a condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yesterday, during the day and night, did members in your household eat:
+Fish and shellfish,  such as: 
+(fish, including canned tuna, escargot, and / or other seafood)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+consumed in large quantities and not as a condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days,What was the main source of 
+Fish and shellfish,  such as: 
+(fish, including canned tuna, escargot, and / or other seafood) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">replace with locally relevant examples </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+consumed in large quantities and not as a condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <t>${FCSPrFish} &gt;0</t>
+  </si>
+  <si>
+    <t>${FCSPrEgg} &gt;0</t>
+  </si>
+  <si>
+    <t>Over the last 7 days,What was the main source of 
+Eggs ?</t>
+  </si>
+  <si>
+    <t>Yesterday, during the day and night, did members in your household eat:
+Eggs ?</t>
+  </si>
+  <si>
+    <t>How many days over the last 7 days, did members of your household eat : 
+Eggs ?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
+ Vegetables and leaves such as
+(spinach, onion, tomatoes, carrots, peppers, green beans, lettuce, etc.) ?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <t>.&lt;=${FCSVeg}</t>
+  </si>
+  <si>
+    <t>${FCSVeg} &gt;0</t>
+  </si>
+  <si>
+    <t>${FCSVegOrg} &gt;0</t>
+  </si>
+  <si>
+    <t>${FCSVegGre} &gt;0</t>
+  </si>
+  <si>
+    <t>${FCSVegOth} &gt;0</t>
+  </si>
+  <si>
+    <t>${FCSFruit} &gt;0</t>
+  </si>
+  <si>
+    <t>.&lt;=${FCSFruit}</t>
+  </si>
+  <si>
+    <t>${FCSFruitOrg} &gt;0</t>
+  </si>
+  <si>
+    <t>${FCSFruitOth} &gt;0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat:
+Oil/fat/butter,such as:
+(vegetable oil, palm oil, shea butter, margarine, other fats /oil)?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days,What was the main source of: 
+Oil/fat/butter,such as:
+(vegetable oil, palm oil, shea butter, margarine, other fats /oil)?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples</t>
+    </r>
+  </si>
+  <si>
+    <t>${FCSFat} &gt;0</t>
+  </si>
+  <si>
+    <t>${FCSSugar} &gt;0</t>
+  </si>
+  <si>
+    <t>${FCSCond} &gt;0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat 
+Roots and Tubers, such as:  
+(potato, yam, cassava, white sweet potato) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, What was the main source of 
+Roots and Tubers, such as:  
+(potato, yam, cassava, white sweet potato) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
+Oil/fat/butter,such as:
+(vegetable oil, palm oil, shea butter, margarine, other fats /oil)?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat 
+Cereals and grains, such as:  
+(cereals, grains, rice, pasta, bread, sorghum, millet, maize, fonio) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">replace with locally relevant examples 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, What was the main source of 
+Cereals and grains, such as:  
+(cereals, grains, rice, pasta, bread, sorghum, millet, maize, fonio) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How many days over the last 7 days, did members of your household eat :
+Legumes / nuts, such as: 
+( beans, cowpeas, peanuts, lentils, nut, soy, pigeon pea and / or other nuts) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat 
+Legumes / nuts, such as: 
+( beans, cowpeas, peanuts, lentils, nut, soy, pigeon pea and / or other nuts) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, What was the main source of 
+Legumes / nuts, such as: 
+( beans, cowpeas, peanuts, lentils, nut, soy, pigeon pea and / or other nuts) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
+Orange vegetables , (rich in Vitamin A), such as: 
+(carrot, red pepper, pumpkin, orange sweet potatoes, etc.) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat:
+Orange vegetables , (rich in Vitamin A) , such as: 
+(carrot, red pepper, pumpkin, orange sweet potatoes, etc.) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days,What was the main source of 
+Orange vegetables , (rich in Vitamin A),
+(carrot, red pepper, pumpkin, orange sweet potatoes, etc.)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>replace with locally relevant examples ?</t>
+    </r>
+  </si>
+  <si>
+    <t>Over the last 7 days, how many days did members of your household eat:
+Orange fruits, (rich in Vitamin A) such as:
+(mango, papaya, apricot, peach, etc.)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat:
+Orange fruits, (rich in Vitamin A)  such as:
+(mango, papaya, apricot, peach, etc.)?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days,What was the main source of: 
+Orange fruits, (rich in Vitamin A)  such as:
+(mango, papaya, apricot, peach, etc.) ?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat/drink:
 Condiments/Spices:
 such as: 
 (tea, coffee / cocoa, salt, garlic, spices, yeast / baking powder, tomato / sauce, meat or fish as a condiment, condiments including small amount of milk / tea coffee)
@@ -502,820 +1278,7 @@
   </si>
   <si>
     <r>
-      <t>Over the last 7 days,What was the main source of: 
-Sugar and sweets, such as: 
-(sugar, honey, jam, cakes, candy, cookies, pastries, cakes and other sweet sugary drinks)?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat/drink : 
-Milk and dairy products, such as:
-(fresh milk / sour, yogurt, cheese, other dairy products) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-excluding margarine / butter or small amounts of milk for tea / coffee ?
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Over the last 7 days,What was the main source of 
-Milk and dairy products, such as:
-(fresh milk / sour, yogurt, cheese, other dairy products)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  replace with locally relevant examples </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-excluding margarine / butter or small amounts of milk for tea / coffee ?
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
-Meat, fish, eggs, such as:
-(goat, beef, chicken, pork, blood, fish, including canned tuna, escargot, and / or other seafood, eggs)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">replace with locally relevant examples </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-consumed in large quantities and not as a condiment ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
-Organ meat, such as: 
-(liver, kidney, heart and / or other organ meats)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">replace with locally relevant examples </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- consumed in large quantities and not as a condiment ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days,What was the main source of 
-Organ meat, such as: 
-(liver, kidney, heart and / or other organ meats)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>replace with locally relevant examples</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
- consumed in large quantities and not as a condiment ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">How many days over the last 7 days, did members of your household eat :
-Pulses, such as: 
-( beans, cowpeas, peanuts, lentils, nut, soy, pigeon pea and / or other nuts) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">replace with locally relevant examples </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days, What was the main source of 
-Pulses, such as: 
-( beans, cowpeas, peanuts, lentils, nut, soy, pigeon pea and / or other nuts) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">replace with locally relevant examples </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat/drink:
-Milk and dairy products, such as:
-(fresh milk / sour, yogurt, cheese, other dairy products) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-excluding margarine / butter or small amounts of milk for tea / coffee ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
-Flesh/red meat , such as:
-(beef, pork, lamb, goat, rabbit, chicken, duck, other birds, insects) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-consumed in large quantities and not as a condiment ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Yesterday, during the day and night, did members in your household eat:
-Flesh/red meat , such as:
-(beef, pork, lamb, goat, rabbit, chicken, duck, other birds, insects)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  replace with locally relevant examples </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-consumed in large quantities and not as a condiment ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days,What was the main source of 
-Flesh/red meat , such as:
-(beef, pork, lamb, goat, rabbit, chicken, duck, other birds, insects) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>consumed in large quantities and not as a condiment ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat:
-Organ meat, such as: 
-(liver, kidney, heart and / or other organ meats)  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>replace with locally relevant examples</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- consumed in large quantities and not as a condiment ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
-Orange vegetables , such as: 
-(carrot, red pepper, pumpkin, orange sweet potatoes, etc.) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
- Fruits, such as:
-(banana, apple, lemon, mango, papaya, apricot, peach, etc.) ?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat:
-Orange fruits, such as:
-(mango, papaya, apricot, peach, etc.)?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days,What was the main source of: 
-Orange fruits, such as:
-(mango, papaya, apricot, peach, etc.) ?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
-Other fruits, such as:
-(Pinapple, apple, lemon, etc.)?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat:
-Other fruits, such as:
-(Pinapple, apple, lemon, etc.)?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days,What was the main source of: 
-Other fruits, such as:
-(Pinapple, apple, lemon, etc.)?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples </t>
-    </r>
-  </si>
-  <si>
-    <t>FCSStap</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat : 
-Cereals, grains, roots and tubers, such as:  
-(Rice, pasta, bread, sorghum, millet, maize, fonio, potato, yam, cassava, white sweet potato) </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">replace with locally relevant examples </t>
-    </r>
-  </si>
-  <si>
-    <t>${FCSPulse} &gt;0</t>
-  </si>
-  <si>
-    <t>${FCSDairy} &gt;0</t>
-  </si>
-  <si>
-    <t>${FCSPrMeatF} &gt;0</t>
-  </si>
-  <si>
-    <t>${FCSPrMeatO} &gt;0</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
-Fish and shellfish,  such as: 
-(fish, including canned tuna, escargot, and / or other seafood) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">replace with locally relevant examples </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-consumed in large quantities and not as a condiment ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Yesterday, during the day and night, did members in your household eat:
-Fish and shellfish,  such as: 
-(fish, including canned tuna, escargot, and / or other seafood)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-consumed in large quantities and not as a condiment ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days,What was the main source of 
-Fish and shellfish,  such as: 
-(fish, including canned tuna, escargot, and / or other seafood) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">replace with locally relevant examples </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-consumed in large quantities and not as a condiment ?</t>
-    </r>
-  </si>
-  <si>
-    <t>${FCSPrFish} &gt;0</t>
-  </si>
-  <si>
-    <t>${FCSPrEgg} &gt;0</t>
-  </si>
-  <si>
-    <t>Over the last 7 days,What was the main source of 
-Eggs ?</t>
-  </si>
-  <si>
-    <t>Yesterday, during the day and night, did members in your household eat:
-Eggs ?</t>
-  </si>
-  <si>
-    <t>How many days over the last 7 days, did members of your household eat : 
-Eggs ?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
- Vegetables and leaves such as
-(spinach, onion, tomatoes, carrots, peppers, green beans, lettuce, etc.) ?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">replace with locally relevant examples </t>
-    </r>
-  </si>
-  <si>
-    <t>.&lt;=${FCSVeg}</t>
-  </si>
-  <si>
-    <t>${FCSVeg} &gt;0</t>
-  </si>
-  <si>
-    <t>${FCSVegOrg} &gt;0</t>
-  </si>
-  <si>
-    <t>${FCSVegGre} &gt;0</t>
-  </si>
-  <si>
-    <t>${FCSVegOth} &gt;0</t>
-  </si>
-  <si>
-    <t>${FCSFruit} &gt;0</t>
-  </si>
-  <si>
-    <t>.&lt;=${FCSFruit}</t>
-  </si>
-  <si>
-    <t>${FCSFruitOrg} &gt;0</t>
-  </si>
-  <si>
-    <t>${FCSFruitOth} &gt;0</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat:
-Oil/fat/butter,such as:
-(vegetable oil, palm oil, shea butter, margarine, other fats /oil)?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days,What was the main source of: 
-Oil/fat/butter,such as:
-(vegetable oil, palm oil, shea butter, margarine, other fats /oil)?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples</t>
-    </r>
-  </si>
-  <si>
-    <t>${FCSFat} &gt;0</t>
-  </si>
-  <si>
-    <t>${FCSSugar} &gt;0</t>
-  </si>
-  <si>
-    <t>${FCSCond} &gt;0</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 3. FOOD CONSUMPTION AND FOOD SOURCES : Now I will ask you a series of questions about how often  members of your household ate  food items, prepared and/or consumed at home, and the sources for these foods.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Add in definition of household from CFSVA manual</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat 
-Roots and Tubers, such as:  
-(potato, yam, cassava, white sweet potato) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">replace with locally relevant examples </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days, What was the main source of 
-Roots and Tubers, such as:  
-(potato, yam, cassava, white sweet potato) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">replace with locally relevant examples </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
-Oil/fat/butter,such as:
-(vegetable oil, palm oil, shea butter, margarine, other fats /oil)?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
-Sugar and sweets, such as: 
-(sugar, honey, jam, cakes, candy, cookies, pastries, cakes and other sweet sugary drinks)?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> replace with locally relevant examples</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat:
 Condiments/Spices:
 such as: 
 (tea, coffee / cocoa, salt, garlic, spices, yeast / baking powder, tomato / sauce, meat or fish as a condiment, condiments including small amount of milk / tea coffee)
@@ -1334,46 +1297,2215 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat 
-Cereals and grains, such as:  
-(cereals, grains, rice, pasta, bread, sorghum, millet, maize, fonio) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">replace with locally relevant examples 
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Over the last 7 days, What was the main source of 
-Cereals and grains, such as:  
-(cereals, grains, rice, pasta, bread, sorghum, millet, maize, fonio) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">replace with locally relevant examples </t>
-    </r>
+      <t xml:space="preserve">Over the last 7 days, how many days did members of your household eat/drink:
+Sugar and sweets, such as: 
+(sugar, honey, jam, cakes, candy, cookies, pastries, cakes and other sweet sugary drinks)?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yesterday, during the day and night, did members in your household eat/drink:
+Sugar and sweets, such as: 
+(sugar, honey, jam, cakes, candy, cookies, pastries, cakes and other sweet sugary drinks)?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> replace with locally relevant examples</t>
+    </r>
+  </si>
+  <si>
+    <t>LA CONSOMMATION ALIMENTAIRE, LA DIVERSITÉ ALIMENTAIRE ET LES SOURCES D'ALIMENTS Je vais maintenant vous poser une série de questions sur la fréquence à laquelle les membres de votre ménage ont consommé des produits alimentaires, préparés et/ou consommés à la maison, et sur les sources de ces aliments.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FOOD CONSUMPTION , DIETARY DIVERSITY AND FOOD SOURCES: 
+Now I will ask you a series of questions about how often  members of your household ate  food items, prepared and/or consumed at home, and the sources for these foods.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours les membres de votre ménage ont mangé : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Céréales, grains, racines et tubercules, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tels que</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Riz, pâtes, pain, sorgho, millet, maïs, fonio, pomme de terre, igname, manioc, patate douce blanche</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">remplacer par des exemples localement pertinents </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ?</t>
+    </r>
+  </si>
+  <si>
+    <t>Au cours des 7 derniers jours, combien de jours les membres de votre ménage ont-ils mangé :  Légumes à feuilles vertes,,  tels que : ( épinards, brocoli, amarante et/ou autres feuilles vert foncé , feuilles de manioc  remplacer par des exemples localement pertinents ) ?</t>
+  </si>
+  <si>
+    <t>Hier, pendant la journée et la nuit, les membres de votre ménage ont-ils mangé 
+Légumes à feuilles vertes,,  tels que : ( épinards, brocoli, amarante et/ou autres feuilles vert foncé , feuilles de manioc  remplacer par des exemples localement pertinents ) ?</t>
+  </si>
+  <si>
+    <t>Au cours des 7 derniers jours, quelle a été la source principale de 
+Légumes à feuilles vertes,,  tels que : ( épinards, brocoli, amarante et/ou autres feuilles vert foncé , feuilles de manioc  remplacer par des exemples localement pertinents ) ?</t>
+  </si>
+  <si>
+    <t>Hier, pendant la journée et la nuit, les membres de votre ménage ont-ils mangé 
+Autres légumes, tels que : (Oignon, tomate, concombre, radis, haricots verts, pois, etc. remplacer par des exemples localement pertinents ) ?</t>
+  </si>
+  <si>
+    <t>Au cours des 7 derniers jours, combien de jours les membres de votre ménage ont-ils mangé : 
+Autres légumes, tels que : (Oignon, tomate, concombre, radis, haricots verts, pois, etc. remplacer par des exemples localement pertinents ) ?</t>
+  </si>
+  <si>
+    <t>Au cours des 7 derniers jours, quelle a été la source principale de 
+Autres légumes, tels que : (Oignon, tomate, concombre, radis, haricots verts, pois, etc. remplacer par des exemples localement pertinents ) ?</t>
+  </si>
+  <si>
+    <r>
+      <t>Au cours des 7 derniers jours, combie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n de jours les membres de votre ménage ont-ils mangé  :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Des fruits, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tels que : : (banane, pomme, citron, mangue, papaye, abricot, pêche, etc. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours les membres de votre ménage ont-ils mangé :
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fruits oranges (Fruits riches en Vitamine A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,   tels que : (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mange, papaye, abricot, pêche </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">remplacer par des exemples localement pertinents </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hier, pendant la journée et la nuit, les membres de votre ménage ont-ils mangé 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Céréales, grains,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tels que: (Riz, pâtes, pain, sorgho, millet, maïs, fonio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> remplacer par des exemples localement pertinents </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, quelle a été la source principale de 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Céréales, grains</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, tels que: ( pomme de terre, igname, manioc, patate douce blanche</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> remplacer par des exemples localement pertinents </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hier, pendant la journée et la nuit, les membres de votre ménage ont-ils mangé :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Racines et tubercules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, tels que:  (pomme de terre, igname, manioc, patate douce blanche </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, quelle a été la source principale de 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Racines et tubercules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, tels que:  ( pomme de terre, igname, manioc, patate douce blanche r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">emplacer par des exemples localement pertinents </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours les membres de votre ménage ont mangé :  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Légumineuses / noix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, telles que(haricots, niébé, arachides, lentilles, noix, soja, pois d'Angole et/ou autres noix  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hier, pendant la journée et la nuit, les membres de votre ménage ont-ils mangé 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Légumineuses / noix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, telles que(haricots, niébé, arachides, lentilles, noix, soja, pois d'Angole et/ou autres noix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, quelle a été la source principale de 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Légumineuses / noix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, telles que(haricots, niébé, arachides, lentilles, noix, soja, pois d'Angole et/ou autres noix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours les membres de votre ménage ont-ils mangé/buvé: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Le lait et les produits laitiers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, tels que : (lait frais / aigre, yaourt, fromage, autres produits laitiers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)   sauf margarine / beurre ou de petites quantités de lait pour le thé / café ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hier, pendant la journée et la nuit, les membres de votre ménage ont-ils mangé 
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Le lait et les produits laitiers,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tels que : (lait frais / aigre, yaourt, fromage, autres produits laitiers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)   sauf margarine / beurre ou de petites quantités de lait pour le thé / café ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, quelle a été la source principale de 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Le lait et les produits laitiers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, tels que : (lait frais / aigre, yaourt, fromage, autres produits laitiers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)   sauf margarine / beurre ou de petites quantités de lait pour le thé / café ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours les membres de votre ménage ont-ils mangé :  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Viande, poisson, œufs,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  tels que : : (chèvre, bœuf, poulet, porc, sang, poisson, y compris le thon en conserve, escargot, et/ou autres fruits de mer, œufs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)  consommé en grande quantité et non comme un condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Au cours des 7 derniers jours, combien de jours les membres de votre ménage ont-ils mangé : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Chair/viande rouge, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>telles que : (bœuf, porc, agneau, chèvre, lapin, poulet, canard, autres oiseaux, insectes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) consommé en grande quantité et non comme un condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hier, pendant la journée et la nuit, les membres de votre ménage ont-ils mange:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chair/viande rouge,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> telles que : (bœuf, porc, agneau, chèvre, lapin, poulet, canard, autres oiseaux, insectes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) consommé en grande quantité et non comme un condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, quelle a été la source principale de 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chair/viande rouge,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> telles que : (bœuf, porc, agneau, chèvre, lapin, poulet, canard, autres oiseaux, insectes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">remplacer par des exemples localement pertinents </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) consommé en grande quantité et non comme un condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours les membres de votre ménage ont-ils mangé : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Viande d'organe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, telle que: (foie, reins, cœur et / ou autres abats </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">remplacer par des exemples localement pertinents </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) consommé en grande quantité et non comme un condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hier, pendant la journée et la nuit, les membres de votre ménage ont-ils mange:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Viande d'organe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, telle que: (foie, reins, cœur et / ou autres abats </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">remplacer par des exemples localement pertinents </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ?  consommé en grande quantité et non comme un condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, quelle a été la source principale de 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Viande d'organe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, telle que: (foie, reins, cœur et / ou autres abats) remplacer par des exemples localement pertinents  consommé en grande quantité et non comme un condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours les membres de votre ménage ont-ils mangé :  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Poissons et coquillage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, tels que: (poissons, y compris le thon en conserve, les escargots et / ou d'autres fruits de mer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) consommé en grande quantité et non comme un condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hier, pendant la journée et la nuit, les membres de votre ménage ont-ils mangé 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Poissons et coquillage,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tels que: (poissons, y compris le thon en conserve, les escargots et / ou d'autres fruits de mer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) consommé en grande quantité et non comme un condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, quelle a été la source principale de 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Poissons et coquillage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, tels que: (poissons, y compris le thon en conserve, les escargots et / ou d'autres fruits de mer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) consommé en grande quantité et non comme un condiment ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours les membres de votre ménage ont-ils mangé : </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Oeufs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hier, pendant la journée et la nuit, les membres de votre ménage ont-ils mangé :  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Oeufs  ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, quelle a été la source principale de  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Oeufs  ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours les membres de votre ménage ont-ils mangé : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Légumes et feuilles ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tels que : (épinards, oignons, tomates, carottes, poivrons, haricots verts, laitue, etc. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours les membres de votre ménage ont-ils mangé : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Légumes oranges (légumes riches en Vitamine A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: ,  tels que  : (carotte, poivron rouge, courge, patate douce orange, etc. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">remplacer par des exemples localement pertinents </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hier, pendant la journée et la nuit, les membres de votre ménage ont-ils mangé 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Légumes oranges (légumes riches en Vitamine A):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,  tels que  : (carotte, poivron rouge, courge, patate douce orange, etc. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Au cours des 7 derniers jours, quelle a été la source principale de 
+Légumes oranges (légumes riches en Vitamine A)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,  tels que : (carotte, poivron rouge, courge, patate douce orange, etc. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hier, pendant la journée et la nuit, les membres de votre ménage ont-ils mangé 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fruits oranges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Fruits riches en Vitamine A),   tels que : ( mange, papaye, abricot, pêche</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, quelle a été la source principale de 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fruits oranges (Fruits riches en Vitamine A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">),   tels que : ( mange, papaye, abricot, pêche </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours les membres de votre ménage ont-ils mangé :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Autres fruits:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  tels que ( banane, pomme, citron, mandarine  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hier, pendant la journée et la nuit, les membres de votre ménage ont-ils mangé 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Autres fruits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  tels que ( banane, pomme, citron, mandarine  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, quelle a été la source principale de 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Autres fruits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:  tels que ( banane, pomme, citron, mandarine  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">remplacer par des exemples localement pertinents </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours les membres de votre ménage ont-ils mangé :  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Huile/matières grasses/beurre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: tels que (huile végétale, huile de palme, beurre de karité, margarine, autres huiles / matières grasses  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hier, pendant la journée et la nuit, les membres de votre ménage ont-ils mangé :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Huile/matières grasses/beurre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: tels que (huile végétale, huile de palme, beurre de karité, margarine, autres huiles / matières grasses  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, quelle a été la source principale de 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Huile/matières grasses/beurre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: tels que (huile végétale, huile de palme, beurre de karité, margarine, autres huiles / matières grasses  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours les membres de votre ménage ont-ils mangé/buvé : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sucre ou sucreries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, tels que (sucre, miel, confiture, gâteau, bonbons, biscuits, viennoiserie et autres produits sucrés (boissons sucrées) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hier, pendant la journée et la nuit, les membres de votre ménage ont-ils  mangé/buvé : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sucre ou sucreries, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">tels que (sucre, miel, confiture, gâteau, bonbons, biscuits, viennoiserie et autres produits sucrés (boissons sucrées)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remplacer par des exemples localement pertinents )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, quelle a été la source principale de : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sucre ou sucreries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, tels que (sucre, miel, confiture, gâteau, bonbons, biscuits, viennoiserie et autres produits sucrés (boissons sucrées) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> remplacer par des exemples localement pertinents </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, combien de jours les membres de votre ménage ont-ils mangé/buvé:  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Condiments/épices:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tels que (thé, café/cacao, sel, ail, épices, levure/levure chimique, tomate/sauce, viande ou poisson comme condiment, condiments incluant des petites quantités de lait/thé, café. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  remplacer par des exemples localement pertinents </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hier, pendant la journée et la nuit, les membres de votre ménage ont-ils mangé/buvé:  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Condiments/épices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: tels que (thé, café/cacao, sel, ail, épices, levure/levure chimique, tomate/sauce, viande ou poisson comme condiment, condiments incluant des petites quantités de lait/thé, café.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  ) ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Au cours des 7 derniers jours, quelle a été la source principale de 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Condiments/épices:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tels que (thé, café/cacao, sel, ail, épices, levure/levure chimique, tomate/sauce, viande ou poisson comme condiment, condiments incluant des petites quantités de lait/thé, café.  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> remplacer par des exemples localement pertinents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  ) ?</t>
+    </r>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>Yesno</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>SRf</t>
+  </si>
+  <si>
+    <t>Own production</t>
+  </si>
+  <si>
+    <t>Hunting/fishing</t>
+  </si>
+  <si>
+    <t>Gathering</t>
+  </si>
+  <si>
+    <t>Begging</t>
+  </si>
+  <si>
+    <t>Exchange for labour or items</t>
+  </si>
+  <si>
+    <t>Gifts from family/friends</t>
+  </si>
+  <si>
+    <t>Aide alimentaire de la société civile, ONG, gouvernement, PAM, etc.</t>
+  </si>
+  <si>
+    <t>Production propre (récoltes, élevage)</t>
+  </si>
+  <si>
+    <t>Pêche / Chasse</t>
+  </si>
+  <si>
+    <t>Cueillette</t>
+  </si>
+  <si>
+    <t>Prêts</t>
+  </si>
+  <si>
+    <t>Marché (achat avec des espèces)</t>
+  </si>
+  <si>
+    <t>Marché (achat à crédit)</t>
+  </si>
+  <si>
+    <t>Mendicité</t>
+  </si>
+  <si>
+    <t>Troc travail ou biens contre des aliments</t>
+  </si>
+  <si>
+    <t>Dons (aliments) de membres de la famille ou d’amis</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>market (purchase with cash)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> market (purchase on credit)</t>
+  </si>
+  <si>
+    <t>food aid from civil society, NGOs, government, WFP etc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1424,6 +3556,75 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1527,7 +3728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1663,6 +3864,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1980,8 +4200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AFB159-24AC-4874-85C9-2F1DE42CCCC7}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,9 +4275,11 @@
         <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="8"/>
+        <v>151</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -2077,12 +4299,14 @@
         <v>19</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="55"/>
+        <v>104</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>152</v>
+      </c>
       <c r="E3" s="55" t="s">
         <v>20</v>
       </c>
@@ -2115,9 +4339,11 @@
         <v>27</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="55"/>
+        <v>135</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>161</v>
+      </c>
       <c r="E4" s="55"/>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
@@ -2144,9 +4370,11 @@
         <v>30</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="55"/>
+        <v>136</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>162</v>
+      </c>
       <c r="E5" s="55"/>
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
@@ -2173,9 +4401,11 @@
         <v>28</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="55"/>
+        <v>132</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>163</v>
+      </c>
       <c r="E6" s="55"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
@@ -2202,9 +4432,11 @@
         <v>31</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="55"/>
+        <v>133</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>164</v>
+      </c>
       <c r="E7" s="55"/>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
@@ -2223,7 +4455,7 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
     </row>
-    <row r="8" spans="1:17" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>19</v>
       </c>
@@ -2231,9 +4463,11 @@
         <v>32</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="53"/>
+        <v>137</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>165</v>
+      </c>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
@@ -2250,7 +4484,7 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:17" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>25</v>
       </c>
@@ -2258,9 +4492,11 @@
         <v>33</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="53"/>
+        <v>138</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>166</v>
+      </c>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
@@ -2272,7 +4508,7 @@
       <c r="K9" s="53"/>
       <c r="L9" s="53"/>
       <c r="M9" s="53" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
@@ -2284,12 +4520,14 @@
         <v>29</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="53"/>
+        <v>139</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>167</v>
+      </c>
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
@@ -2301,7 +4539,7 @@
       <c r="K10" s="53"/>
       <c r="L10" s="53"/>
       <c r="M10" s="53" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -2313,12 +4551,14 @@
         <v>19</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="21"/>
+        <v>89</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>168</v>
+      </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -2331,17 +4571,19 @@
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
     </row>
-    <row r="12" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="21"/>
+        <v>94</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>169</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -2353,7 +4595,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="90" x14ac:dyDescent="0.25">
@@ -2361,12 +4603,14 @@
         <v>29</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>170</v>
+      </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -2378,20 +4622,22 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="22"/>
+        <v>91</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>171</v>
+      </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -2409,26 +4655,26 @@
         <v>19</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>20</v>
+        <v>95</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>172</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="I15" s="22" t="s">
         <v>42</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>43</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>24</v>
@@ -2436,20 +4682,22 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="22"/>
+        <v>96</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>173</v>
+      </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -2461,7 +4709,7 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -2469,12 +4717,14 @@
         <v>29</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="22"/>
+        <v>97</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>174</v>
+      </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -2486,7 +4736,7 @@
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2494,22 +4744,24 @@
         <v>19</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="26"/>
+        <v>92</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>175</v>
+      </c>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="I18" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>43</v>
       </c>
       <c r="J18" s="26" t="s">
         <v>24</v>
@@ -2517,20 +4769,22 @@
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
       <c r="M18" s="26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="26"/>
+        <v>98</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>176</v>
+      </c>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
@@ -2542,7 +4796,7 @@
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
       <c r="M19" s="26" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -2550,12 +4804,14 @@
         <v>29</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="26"/>
+        <v>93</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>177</v>
+      </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
@@ -2567,30 +4823,32 @@
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
       <c r="M20" s="26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="11"/>
+        <v>109</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>178</v>
+      </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>24</v>
@@ -2598,20 +4856,22 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -2623,7 +4883,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
@@ -2631,12 +4891,14 @@
         <v>29</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>180</v>
+      </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -2648,7 +4910,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2656,22 +4918,24 @@
         <v>19</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="32"/>
+        <v>116</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>181</v>
+      </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="I24" s="32" t="s">
         <v>42</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>43</v>
       </c>
       <c r="J24" s="32" t="s">
         <v>24</v>
@@ -2679,7 +4943,7 @@
       <c r="K24" s="32"/>
       <c r="L24" s="32"/>
       <c r="M24" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2687,12 +4951,14 @@
         <v>25</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="32"/>
+        <v>115</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>182</v>
+      </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
@@ -2704,7 +4970,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="32"/>
       <c r="M25" s="32" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2712,12 +4978,14 @@
         <v>29</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="32"/>
+        <v>114</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>183</v>
+      </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
@@ -2729,26 +4997,30 @@
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
       <c r="M26" s="32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="35"/>
+        <v>117</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>184</v>
+      </c>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
+      <c r="J27" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
@@ -2758,22 +5030,24 @@
         <v>19</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="35"/>
+        <v>140</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H28" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="35" t="s">
         <v>42</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>43</v>
       </c>
       <c r="J28" s="35" t="s">
         <v>24</v>
@@ -2781,20 +5055,22 @@
       <c r="K28" s="35"/>
       <c r="L28" s="35"/>
       <c r="M28" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="35"/>
+        <v>141</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>186</v>
+      </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
@@ -2806,7 +5082,7 @@
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
       <c r="M29" s="35" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -2814,12 +5090,14 @@
         <v>29</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="35"/>
+        <v>142</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>187</v>
+      </c>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -2831,7 +5109,7 @@
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
       <c r="M30" s="35" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2839,22 +5117,24 @@
         <v>19</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H31" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>24</v>
@@ -2862,20 +5142,22 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="30" t="s">
+        <v>154</v>
+      </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -2887,7 +5169,7 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -2895,12 +5177,14 @@
         <v>29</v>
       </c>
       <c r="B33" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="30" t="s">
+        <v>155</v>
+      </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -2912,7 +5196,7 @@
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2920,22 +5204,24 @@
         <v>19</v>
       </c>
       <c r="B34" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="40" t="s">
+        <v>157</v>
+      </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39"/>
       <c r="G34" s="39" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H34" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="39" t="s">
         <v>42</v>
-      </c>
-      <c r="I34" s="39" t="s">
-        <v>43</v>
       </c>
       <c r="J34" s="39" t="s">
         <v>24</v>
@@ -2943,20 +5229,22 @@
       <c r="K34" s="39"/>
       <c r="L34" s="39"/>
       <c r="M34" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="39"/>
+      <c r="D35" s="40" t="s">
+        <v>156</v>
+      </c>
       <c r="E35" s="39"/>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
@@ -2968,7 +5256,7 @@
       <c r="K35" s="39"/>
       <c r="L35" s="39"/>
       <c r="M35" s="39" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -2976,12 +5264,14 @@
         <v>29</v>
       </c>
       <c r="B36" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="40" t="s">
+        <v>158</v>
+      </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
@@ -2993,7 +5283,7 @@
       <c r="K36" s="39"/>
       <c r="L36" s="39"/>
       <c r="M36" s="39" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -3001,12 +5291,14 @@
         <v>19</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="43"/>
+        <v>99</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>159</v>
+      </c>
       <c r="E37" s="43"/>
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
@@ -3024,22 +5316,24 @@
         <v>19</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="43"/>
+        <v>143</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>160</v>
+      </c>
       <c r="E38" s="43"/>
       <c r="F38" s="43"/>
       <c r="G38" s="43" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H38" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="43" t="s">
         <v>42</v>
-      </c>
-      <c r="I38" s="43" t="s">
-        <v>43</v>
       </c>
       <c r="J38" s="43" t="s">
         <v>24</v>
@@ -3047,20 +5341,22 @@
       <c r="K38" s="43"/>
       <c r="L38" s="43"/>
       <c r="M38" s="43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="43"/>
+        <v>144</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>188</v>
+      </c>
       <c r="E39" s="43"/>
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
@@ -3072,7 +5368,7 @@
       <c r="K39" s="43"/>
       <c r="L39" s="43"/>
       <c r="M39" s="43" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -3080,12 +5376,14 @@
         <v>29</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="43"/>
+        <v>145</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>189</v>
+      </c>
       <c r="E40" s="43"/>
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
@@ -3097,7 +5395,7 @@
       <c r="K40" s="43"/>
       <c r="L40" s="43"/>
       <c r="M40" s="43" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3105,22 +5403,24 @@
         <v>19</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="43"/>
+        <v>100</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>190</v>
+      </c>
       <c r="E41" s="43"/>
       <c r="F41" s="43"/>
       <c r="G41" s="43" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H41" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="43" t="s">
         <v>42</v>
-      </c>
-      <c r="I41" s="43" t="s">
-        <v>43</v>
       </c>
       <c r="J41" s="43" t="s">
         <v>24</v>
@@ -3128,7 +5428,7 @@
       <c r="K41" s="43"/>
       <c r="L41" s="43"/>
       <c r="M41" s="43" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -3136,12 +5436,14 @@
         <v>25</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="43"/>
+        <v>101</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>191</v>
+      </c>
       <c r="E42" s="43"/>
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
@@ -3153,7 +5455,7 @@
       <c r="K42" s="43"/>
       <c r="L42" s="43"/>
       <c r="M42" s="43" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -3161,12 +5463,14 @@
         <v>29</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="43"/>
+        <v>102</v>
+      </c>
+      <c r="D43" s="57" t="s">
+        <v>192</v>
+      </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
       <c r="G43" s="43"/>
@@ -3178,20 +5482,22 @@
       <c r="K43" s="43"/>
       <c r="L43" s="43"/>
       <c r="M43" s="43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="46"/>
+        <v>134</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>193</v>
+      </c>
       <c r="E44" s="46"/>
       <c r="F44" s="46"/>
       <c r="G44" s="46"/>
@@ -3204,17 +5510,19 @@
       <c r="L44" s="46"/>
       <c r="M44" s="46"/>
     </row>
-    <row r="45" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
         <v>25</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="46"/>
+        <v>127</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>194</v>
+      </c>
       <c r="E45" s="46"/>
       <c r="F45" s="46"/>
       <c r="G45" s="46"/>
@@ -3226,7 +5534,7 @@
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
       <c r="M45" s="46" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -3234,12 +5542,14 @@
         <v>29</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" s="46"/>
+        <v>128</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>195</v>
+      </c>
       <c r="E46" s="46"/>
       <c r="F46" s="46"/>
       <c r="G46" s="46"/>
@@ -3251,20 +5561,22 @@
       <c r="K46" s="46"/>
       <c r="L46" s="46"/>
       <c r="M46" s="46" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="49" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="51"/>
+        <v>148</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>196</v>
+      </c>
       <c r="E47" s="51"/>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -3277,17 +5589,19 @@
       <c r="L47" s="51"/>
       <c r="M47" s="51"/>
     </row>
-    <row r="48" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="49" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="49" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="51"/>
+        <v>149</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>197</v>
+      </c>
       <c r="E48" s="51"/>
       <c r="F48" s="51"/>
       <c r="G48" s="51"/>
@@ -3299,20 +5613,22 @@
       <c r="K48" s="51"/>
       <c r="L48" s="51"/>
       <c r="M48" s="51" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="49" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="51"/>
+        <v>88</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>198</v>
+      </c>
       <c r="E49" s="51"/>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
@@ -3324,18 +5640,21 @@
       <c r="K49" s="51"/>
       <c r="L49" s="51"/>
       <c r="M49" s="51" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>24</v>
@@ -3346,16 +5665,19 @@
         <v>25</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>93</v>
+        <v>147</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="J51" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="90" x14ac:dyDescent="0.25">
@@ -3363,20 +5685,226 @@
         <v>29</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>24</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0138E845-9786-443D-9180-88293D55D895}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="58">
+        <v>1</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="58">
+        <v>0</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="61">
+        <v>100</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="61">
+        <v>200</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="61">
+        <v>300</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="61">
+        <v>400</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="61">
+        <v>500</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="61">
+        <v>600</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="61">
+        <v>700</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="61">
+        <v>800</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="61">
+        <v>900</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="61">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/questionnaires/RBDstandardized_questionnaireFCSHDDS.xlsx
+++ b/questionnaires/RBDstandardized_questionnaireFCSHDDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_FS_CH_guide_EN\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37920A5D-E87A-48DF-9945-AF938E40892C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FE686F-3CA8-40D5-91E2-A584B7B6BA80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E25D54C6-3086-4347-8310-63AD65021B04}"/>
+    <workbookView xWindow="-25320" yWindow="1710" windowWidth="25440" windowHeight="15390" xr2:uid="{E25D54C6-3086-4347-8310-63AD65021B04}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="221">
   <si>
     <t>type</t>
   </si>
@@ -4029,6 +4029,34 @@
       </rPr>
       <t>) ?</t>
     </r>
+  </si>
+  <si>
+    <t>lhcslt</t>
+  </si>
+  <si>
+    <t>No, because I did not face a
+shortage of food</t>
+  </si>
+  <si>
+    <t>Non, je n'ai pas été confronté à une insuffisance de nourriture</t>
+  </si>
+  <si>
+    <t>No; because I already sold those assets or did this activity in the last 12 months and cannot continue to do it</t>
+  </si>
+  <si>
+    <t>Non, parce que j’ai déjà vendu ces actifs ou mené cette activité au cours des 12 derniers mois et je ne peux pas continuer à le faire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>Non applicable</t>
+  </si>
+  <si>
+    <t>FCSPrSRf</t>
   </si>
 </sst>
 </file>
@@ -4119,12 +4147,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -4154,7 +4188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4209,6 +4243,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4525,10 +4569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AFB159-24AC-4874-85C9-2F1DE42CCCC7}">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="63" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4595,16 +4639,16 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="8" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="25" t="s">
         <v>87</v>
       </c>
       <c r="E2" s="6"/>
@@ -4948,7 +4992,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>203</v>
@@ -5705,6 +5749,12 @@
       <c r="M45" s="11" t="s">
         <v>86</v>
       </c>
+    </row>
+    <row r="47" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5714,10 +5764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0138E845-9786-443D-9180-88293D55D895}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D15"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5908,6 +5958,62 @@
       </c>
       <c r="E15" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
